--- a/Excel/ScenarioPage.xlsx
+++ b/Excel/ScenarioPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\Perforce\wk_program_4958\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564C977A-8277-412B-AAE3-F626DCBE4693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A4EDF-69E7-4B95-95DF-A7A0FA20CB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1680" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioPage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UniqueId</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -49,6 +49,21 @@
   <si>
     <t>SelectGroupId</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 3</t>
+  </si>
+  <si>
+    <t>페이지 4</t>
+  </si>
+  <si>
+    <t>페이지 5</t>
+  </si>
+  <si>
+    <t>페이지 6</t>
+  </si>
+  <si>
+    <t>페이지 7</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,9 +168,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +454,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -503,34 +509,74 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1000004</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1000005</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1000006</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1000007</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1000010</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>

--- a/Excel/ScenarioPage.xlsx
+++ b/Excel/ScenarioPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A4EDF-69E7-4B95-95DF-A7A0FA20CB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A268AF6-7CCC-4F32-9061-2F75B6B54891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1680" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioPage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>UniqueId</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>페이지 7</t>
+  </si>
+  <si>
+    <t>TextContentId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultContentGroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -463,10 +471,12 @@
     <col min="2" max="2" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,8 +489,14 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>10001</v>
       </c>
@@ -493,8 +509,14 @@
       <c r="D2" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="3">
+        <v>1000010</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>10001</v>
       </c>
@@ -507,8 +529,14 @@
       <c r="D3" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="3">
+        <v>1000011</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -521,8 +549,14 @@
       <c r="D4" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="3">
+        <v>1000012</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
@@ -535,8 +569,14 @@
       <c r="D5" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="3">
+        <v>1000013</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>10001</v>
       </c>
@@ -549,8 +589,14 @@
       <c r="D6" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="3">
+        <v>1000014</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>10001</v>
       </c>
@@ -563,8 +609,14 @@
       <c r="D7" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="3">
+        <v>1000015</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>10001</v>
       </c>
@@ -577,12 +629,20 @@
       <c r="D8" s="3">
         <v>1000010</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="3">
+        <v>1000016</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
